--- a/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
+++ b/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
@@ -46842,7 +46842,9 @@
       <c r="P875" t="n">
         <v>0</v>
       </c>
-      <c r="Q875" t="inlineStr"/>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
+++ b/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
@@ -49525,7 +49525,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
+++ b/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R876"/>
+  <dimension ref="A1:R878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49529,6 +49529,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B877" t="n">
+        <v>658.25</v>
+      </c>
+      <c r="C877" t="n">
+        <v>698.9500122070312</v>
+      </c>
+      <c r="D877" t="n">
+        <v>654.0499877929688</v>
+      </c>
+      <c r="E877" t="n">
+        <v>676.2999877929688</v>
+      </c>
+      <c r="F877" t="n">
+        <v>676.2999877929688</v>
+      </c>
+      <c r="G877" t="n">
+        <v>3549026</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>6</v>
+      </c>
+      <c r="J877" t="n">
+        <v>17</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>25</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B878" t="n">
+        <v>650</v>
+      </c>
+      <c r="C878" t="n">
+        <v>657.5499877929688</v>
+      </c>
+      <c r="D878" t="n">
+        <v>607.0499877929688</v>
+      </c>
+      <c r="E878" t="n">
+        <v>614.5499877929688</v>
+      </c>
+      <c r="F878" t="n">
+        <v>614.5499877929688</v>
+      </c>
+      <c r="G878" t="n">
+        <v>4502783</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>6</v>
+      </c>
+      <c r="J878" t="n">
+        <v>24</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>26</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
+++ b/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R878"/>
+  <dimension ref="A1:R913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -49581,7 +49581,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49635,7 +49637,1829 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B879" t="n">
+        <v>609.7919615046269</v>
+      </c>
+      <c r="C879" t="n">
+        <v>609.7919615046269</v>
+      </c>
+      <c r="D879" t="n">
+        <v>545.7417386533743</v>
+      </c>
+      <c r="E879" t="n">
+        <v>547.4285888671875</v>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="n">
+        <v>6342530</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>7</v>
+      </c>
+      <c r="J879" t="n">
+        <v>1</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>27</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B880" t="n">
+        <v>552.6379088582288</v>
+      </c>
+      <c r="C880" t="n">
+        <v>556.6565402178697</v>
+      </c>
+      <c r="D880" t="n">
+        <v>526.8888107944542</v>
+      </c>
+      <c r="E880" t="n">
+        <v>528.377197265625</v>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="n">
+        <v>2630067</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>7</v>
+      </c>
+      <c r="J880" t="n">
+        <v>8</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>28</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B881" t="n">
+        <v>528.3771939884616</v>
+      </c>
+      <c r="C881" t="n">
+        <v>560.3279021506125</v>
+      </c>
+      <c r="D881" t="n">
+        <v>512.9972005484219</v>
+      </c>
+      <c r="E881" t="n">
+        <v>528.0795288085938</v>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="n">
+        <v>3662186</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>7</v>
+      </c>
+      <c r="J881" t="n">
+        <v>15</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>29</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B882" t="n">
+        <v>530.1136511028998</v>
+      </c>
+      <c r="C882" t="n">
+        <v>603.7391810663047</v>
+      </c>
+      <c r="D882" t="n">
+        <v>503.6203596558969</v>
+      </c>
+      <c r="E882" t="n">
+        <v>586.1762084960938</v>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="n">
+        <v>5268007</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>7</v>
+      </c>
+      <c r="J882" t="n">
+        <v>22</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>30</v>
+      </c>
+      <c r="O882" t="n">
+        <v>2</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B883" t="n">
+        <v>595.354605589478</v>
+      </c>
+      <c r="C883" t="n">
+        <v>672.75070431611</v>
+      </c>
+      <c r="D883" t="n">
+        <v>586.3250849630784</v>
+      </c>
+      <c r="E883" t="n">
+        <v>652.2605590820312</v>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="n">
+        <v>7384773</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>7</v>
+      </c>
+      <c r="J883" t="n">
+        <v>29</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>31</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B884" t="n">
+        <v>619.2183998166014</v>
+      </c>
+      <c r="C884" t="n">
+        <v>644.9674990047741</v>
+      </c>
+      <c r="D884" t="n">
+        <v>582.3064016071921</v>
+      </c>
+      <c r="E884" t="n">
+        <v>602.5980834960938</v>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="n">
+        <v>4786555</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>8</v>
+      </c>
+      <c r="J884" t="n">
+        <v>5</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>32</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B885" t="n">
+        <v>598.7778906132386</v>
+      </c>
+      <c r="C885" t="n">
+        <v>623.8323962593454</v>
+      </c>
+      <c r="D885" t="n">
+        <v>573.5249213247415</v>
+      </c>
+      <c r="E885" t="n">
+        <v>618.3253784179688</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>3119740</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>8</v>
+      </c>
+      <c r="J885" t="n">
+        <v>12</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>33</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B886" t="n">
+        <v>625.1223275265</v>
+      </c>
+      <c r="C886" t="n">
+        <v>710.9526153535513</v>
+      </c>
+      <c r="D886" t="n">
+        <v>622.2944174127304</v>
+      </c>
+      <c r="E886" t="n">
+        <v>691.057861328125</v>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="n">
+        <v>8028934</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>8</v>
+      </c>
+      <c r="J886" t="n">
+        <v>19</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>34</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B887" t="n">
+        <v>696.5648797545507</v>
+      </c>
+      <c r="C887" t="n">
+        <v>771.9764621781203</v>
+      </c>
+      <c r="D887" t="n">
+        <v>694.7292273021754</v>
+      </c>
+      <c r="E887" t="n">
+        <v>714.5247192382812</v>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="n">
+        <v>11487508</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>8</v>
+      </c>
+      <c r="J887" t="n">
+        <v>26</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>35</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B888" t="n">
+        <v>724.0504039900688</v>
+      </c>
+      <c r="C888" t="n">
+        <v>800.2061770154243</v>
+      </c>
+      <c r="D888" t="n">
+        <v>709.4642047313246</v>
+      </c>
+      <c r="E888" t="n">
+        <v>757.1917724609375</v>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="n">
+        <v>9529019</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9</v>
+      </c>
+      <c r="J888" t="n">
+        <v>2</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>36</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>1</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B889" t="n">
+        <v>757.1917821985813</v>
+      </c>
+      <c r="C889" t="n">
+        <v>759.1762974820923</v>
+      </c>
+      <c r="D889" t="n">
+        <v>717.3030734500904</v>
+      </c>
+      <c r="E889" t="n">
+        <v>750.8413696289062</v>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="n">
+        <v>5501015</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9</v>
+      </c>
+      <c r="J889" t="n">
+        <v>9</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>37</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B890" t="n">
+        <v>759.9701880513375</v>
+      </c>
+      <c r="C890" t="n">
+        <v>822.4327611091089</v>
+      </c>
+      <c r="D890" t="n">
+        <v>727.5729502880686</v>
+      </c>
+      <c r="E890" t="n">
+        <v>784.6773681640625</v>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="n">
+        <v>11186774</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>9</v>
+      </c>
+      <c r="J890" t="n">
+        <v>16</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>38</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B891" t="n">
+        <v>791.8216340817895</v>
+      </c>
+      <c r="C891" t="n">
+        <v>796.7829225158858</v>
+      </c>
+      <c r="D891" t="n">
+        <v>741.2164920540059</v>
+      </c>
+      <c r="E891" t="n">
+        <v>744.8382568359375</v>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="n">
+        <v>3155155</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I891" t="n">
+        <v>9</v>
+      </c>
+      <c r="J891" t="n">
+        <v>23</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>39</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B892" t="n">
+        <v>739.182357497398</v>
+      </c>
+      <c r="C892" t="n">
+        <v>763.0461421584952</v>
+      </c>
+      <c r="D892" t="n">
+        <v>685.7989073886868</v>
+      </c>
+      <c r="E892" t="n">
+        <v>721.619384765625</v>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="n">
+        <v>4877628</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I892" t="n">
+        <v>9</v>
+      </c>
+      <c r="J892" t="n">
+        <v>30</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>40</v>
+      </c>
+      <c r="O892" t="n">
+        <v>2</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B893" t="n">
+        <v>722.6612399646037</v>
+      </c>
+      <c r="C893" t="n">
+        <v>807.1520037397845</v>
+      </c>
+      <c r="D893" t="n">
+        <v>691.2066601041159</v>
+      </c>
+      <c r="E893" t="n">
+        <v>802.2899169921875</v>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="n">
+        <v>6965431</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I893" t="n">
+        <v>10</v>
+      </c>
+      <c r="J893" t="n">
+        <v>7</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>41</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B894" t="n">
+        <v>808.6899905895486</v>
+      </c>
+      <c r="C894" t="n">
+        <v>1055.762147223656</v>
+      </c>
+      <c r="D894" t="n">
+        <v>800.0573368596921</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1021.727661132812</v>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="n">
+        <v>52434682</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I894" t="n">
+        <v>10</v>
+      </c>
+      <c r="J894" t="n">
+        <v>14</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>42</v>
+      </c>
+      <c r="O894" t="n">
+        <v>1</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B895" t="n">
+        <v>1014.03770162248</v>
+      </c>
+      <c r="C895" t="n">
+        <v>1032.543270167117</v>
+      </c>
+      <c r="D895" t="n">
+        <v>845.7011697156902</v>
+      </c>
+      <c r="E895" t="n">
+        <v>865.2486572265625</v>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="n">
+        <v>14181777</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I895" t="n">
+        <v>10</v>
+      </c>
+      <c r="J895" t="n">
+        <v>21</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>43</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B896" t="n">
+        <v>878.0488022595584</v>
+      </c>
+      <c r="C896" t="n">
+        <v>981.4916603340286</v>
+      </c>
+      <c r="D896" t="n">
+        <v>857.3601943071047</v>
+      </c>
+      <c r="E896" t="n">
+        <v>969.0884399414062</v>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="n">
+        <v>13128387</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I896" t="n">
+        <v>10</v>
+      </c>
+      <c r="J896" t="n">
+        <v>28</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>44</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B897" t="n">
+        <v>968.4435002225077</v>
+      </c>
+      <c r="C897" t="n">
+        <v>1017.064126770564</v>
+      </c>
+      <c r="D897" t="n">
+        <v>906.0304676327169</v>
+      </c>
+      <c r="E897" t="n">
+        <v>989.9259033203125</v>
+      </c>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="n">
+        <v>19187879</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>11</v>
+      </c>
+      <c r="J897" t="n">
+        <v>4</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>45</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B898" t="n">
+        <v>990.3227195700572</v>
+      </c>
+      <c r="C898" t="n">
+        <v>1001.187952775633</v>
+      </c>
+      <c r="D898" t="n">
+        <v>879.7852554723291</v>
+      </c>
+      <c r="E898" t="n">
+        <v>893.9249267578125</v>
+      </c>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="n">
+        <v>10388372</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>11</v>
+      </c>
+      <c r="J898" t="n">
+        <v>11</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>46</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>1</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B899" t="n">
+        <v>903.5498124273132</v>
+      </c>
+      <c r="C899" t="n">
+        <v>916.8460894649409</v>
+      </c>
+      <c r="D899" t="n">
+        <v>862.1230545970521</v>
+      </c>
+      <c r="E899" t="n">
+        <v>902.4087524414062</v>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="n">
+        <v>7463919</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>11</v>
+      </c>
+      <c r="J899" t="n">
+        <v>18</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>47</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B900" t="n">
+        <v>933.7144781034344</v>
+      </c>
+      <c r="C900" t="n">
+        <v>940.6602818725354</v>
+      </c>
+      <c r="D900" t="n">
+        <v>879.189906403471</v>
+      </c>
+      <c r="E900" t="n">
+        <v>912.1328735351562</v>
+      </c>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="n">
+        <v>7106027</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>11</v>
+      </c>
+      <c r="J900" t="n">
+        <v>25</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>48</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>2</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B901" t="n">
+        <v>912.82742333104</v>
+      </c>
+      <c r="C901" t="n">
+        <v>1008.133757049858</v>
+      </c>
+      <c r="D901" t="n">
+        <v>902.0613916549064</v>
+      </c>
+      <c r="E901" t="n">
+        <v>964.0278930664062</v>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="n">
+        <v>11715507</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>12</v>
+      </c>
+      <c r="J901" t="n">
+        <v>2</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>49</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B902" t="n">
+        <v>968.4434739274404</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1026.986675732481</v>
+      </c>
+      <c r="D902" t="n">
+        <v>961.4480695530873</v>
+      </c>
+      <c r="E902" t="n">
+        <v>982.1862182617188</v>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="n">
+        <v>15357089</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>12</v>
+      </c>
+      <c r="J902" t="n">
+        <v>9</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>50</v>
+      </c>
+      <c r="O902" t="n">
+        <v>1</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B903" t="n">
+        <v>987.097907198015</v>
+      </c>
+      <c r="C903" t="n">
+        <v>1007.637652854693</v>
+      </c>
+      <c r="D903" t="n">
+        <v>908.4118869408877</v>
+      </c>
+      <c r="E903" t="n">
+        <v>919.3267211914062</v>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="n">
+        <v>8615057</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I903" t="n">
+        <v>12</v>
+      </c>
+      <c r="J903" t="n">
+        <v>16</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>51</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B904" t="n">
+        <v>922.799604907323</v>
+      </c>
+      <c r="C904" t="n">
+        <v>933.3175116629471</v>
+      </c>
+      <c r="D904" t="n">
+        <v>897.9931639151907</v>
+      </c>
+      <c r="E904" t="n">
+        <v>903.3513793945312</v>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="n">
+        <v>3478869</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I904" t="n">
+        <v>12</v>
+      </c>
+      <c r="J904" t="n">
+        <v>23</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>52</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B905" t="n">
+        <v>906.9235130583621</v>
+      </c>
+      <c r="C905" t="n">
+        <v>992.2080721592482</v>
+      </c>
+      <c r="D905" t="n">
+        <v>893.1311071795891</v>
+      </c>
+      <c r="E905" t="n">
+        <v>963.6806640625</v>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="n">
+        <v>7572011</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I905" t="n">
+        <v>12</v>
+      </c>
+      <c r="J905" t="n">
+        <v>30</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>1</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B906" t="n">
+        <v>970.4280200100231</v>
+      </c>
+      <c r="C906" t="n">
+        <v>971.0730117330261</v>
+      </c>
+      <c r="D906" t="n">
+        <v>863.2641895794684</v>
+      </c>
+      <c r="E906" t="n">
+        <v>871.3014526367188</v>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="n">
+        <v>7276765</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I906" t="n">
+        <v>1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>6</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>2</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B907" t="n">
+        <v>854.3338640304695</v>
+      </c>
+      <c r="C907" t="n">
+        <v>909.8506934397435</v>
+      </c>
+      <c r="D907" t="n">
+        <v>773.0679356659448</v>
+      </c>
+      <c r="E907" t="n">
+        <v>789.5890502929688</v>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="n">
+        <v>14707514</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I907" t="n">
+        <v>1</v>
+      </c>
+      <c r="J907" t="n">
+        <v>13</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>3</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B908" t="n">
+        <v>799.7596484951517</v>
+      </c>
+      <c r="C908" t="n">
+        <v>820.7459215609762</v>
+      </c>
+      <c r="D908" t="n">
+        <v>685.9476864044757</v>
+      </c>
+      <c r="E908" t="n">
+        <v>688.9740600585938</v>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="n">
+        <v>16368502</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I908" t="n">
+        <v>1</v>
+      </c>
+      <c r="J908" t="n">
+        <v>20</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>4</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>2</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B909" t="n">
+        <v>687.6345277007099</v>
+      </c>
+      <c r="C909" t="n">
+        <v>687.6345277007099</v>
+      </c>
+      <c r="D909" t="n">
+        <v>602.4988363836179</v>
+      </c>
+      <c r="E909" t="n">
+        <v>655.931884765625</v>
+      </c>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="n">
+        <v>22892102</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I909" t="n">
+        <v>1</v>
+      </c>
+      <c r="J909" t="n">
+        <v>27</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>5</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B910" t="n">
+        <v>646.5499877929688</v>
+      </c>
+      <c r="C910" t="n">
+        <v>738.5999755859375</v>
+      </c>
+      <c r="D910" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="E910" t="n">
+        <v>674.2999877929688</v>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="n">
+        <v>41096907</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I910" t="n">
+        <v>2</v>
+      </c>
+      <c r="J910" t="n">
+        <v>3</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>6</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B911" t="n">
+        <v>674.8499755859375</v>
+      </c>
+      <c r="C911" t="n">
+        <v>676.9000244140625</v>
+      </c>
+      <c r="D911" t="n">
+        <v>602.6500244140625</v>
+      </c>
+      <c r="E911" t="n">
+        <v>619.75</v>
+      </c>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="n">
+        <v>11471163</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I911" t="n">
+        <v>2</v>
+      </c>
+      <c r="J911" t="n">
+        <v>10</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>7</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B912" t="n">
+        <v>617</v>
+      </c>
+      <c r="C912" t="n">
+        <v>650.5499877929688</v>
+      </c>
+      <c r="D912" t="n">
+        <v>603</v>
+      </c>
+      <c r="E912" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="n">
+        <v>10905716</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I912" t="n">
+        <v>2</v>
+      </c>
+      <c r="J912" t="n">
+        <v>17</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>8</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B913" t="n">
+        <v>602</v>
+      </c>
+      <c r="C913" t="n">
+        <v>614.9500122070312</v>
+      </c>
+      <c r="D913" t="n">
+        <v>560.1500244140625</v>
+      </c>
+      <c r="E913" t="n">
+        <v>588.5</v>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="n">
+        <v>8568472</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I913" t="n">
+        <v>2</v>
+      </c>
+      <c r="J913" t="n">
+        <v>24</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>9</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
+++ b/stock_historical_data/1wk/MOTILALOFS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R913"/>
+  <dimension ref="A1:R917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49691,7 +49691,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49743,7 +49745,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49795,7 +49799,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49847,7 +49853,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49899,7 +49907,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49951,7 +49961,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -50003,7 +50015,9 @@
       <c r="Q885" t="n">
         <v>0</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -50055,7 +50069,9 @@
       <c r="Q886" t="n">
         <v>0</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -50107,7 +50123,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50159,7 +50177,9 @@
       <c r="Q888" t="n">
         <v>1</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50211,7 +50231,9 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -50263,7 +50285,9 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -50315,7 +50339,9 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -50367,7 +50393,9 @@
       <c r="Q892" t="n">
         <v>0</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50419,7 +50447,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50471,7 +50501,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50523,7 +50555,9 @@
       <c r="Q895" t="n">
         <v>0</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50575,7 +50609,9 @@
       <c r="Q896" t="n">
         <v>0</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
@@ -50627,7 +50663,9 @@
       <c r="Q897" t="n">
         <v>0</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -50679,7 +50717,9 @@
       <c r="Q898" t="n">
         <v>1</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -50731,7 +50771,9 @@
       <c r="Q899" t="n">
         <v>0</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -50783,7 +50825,9 @@
       <c r="Q900" t="n">
         <v>2</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50835,7 +50879,9 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -50887,7 +50933,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -50939,7 +50987,9 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -50991,7 +51041,9 @@
       <c r="Q904" t="n">
         <v>0</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -51043,7 +51095,9 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -51095,7 +51149,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51147,7 +51203,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51199,7 +51257,9 @@
       <c r="Q908" t="n">
         <v>2</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51251,7 +51311,9 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -51303,7 +51365,9 @@
       <c r="Q910" t="n">
         <v>0</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
@@ -51355,7 +51419,9 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -51407,7 +51473,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51459,7 +51527,217 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B914" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="C914" t="n">
+        <v>619.7000122070312</v>
+      </c>
+      <c r="D914" t="n">
+        <v>562.2999877929688</v>
+      </c>
+      <c r="E914" t="n">
+        <v>605.4500122070312</v>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="n">
+        <v>10166430</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3</v>
+      </c>
+      <c r="J914" t="n">
+        <v>3</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>10</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B915" t="n">
+        <v>606.25</v>
+      </c>
+      <c r="C915" t="n">
+        <v>616</v>
+      </c>
+      <c r="D915" t="n">
+        <v>568</v>
+      </c>
+      <c r="E915" t="n">
+        <v>576.4000244140625</v>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="n">
+        <v>3980911</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3</v>
+      </c>
+      <c r="J915" t="n">
+        <v>10</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>11</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B916" t="n">
+        <v>578</v>
+      </c>
+      <c r="C916" t="n">
+        <v>674.9500122070312</v>
+      </c>
+      <c r="D916" t="n">
+        <v>575.2999877929688</v>
+      </c>
+      <c r="E916" t="n">
+        <v>637.2999877929688</v>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="n">
+        <v>9862077</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I916" t="n">
+        <v>3</v>
+      </c>
+      <c r="J916" t="n">
+        <v>17</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>12</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B917" t="n">
+        <v>642</v>
+      </c>
+      <c r="C917" t="n">
+        <v>657.5999755859375</v>
+      </c>
+      <c r="D917" t="n">
+        <v>605.2000122070312</v>
+      </c>
+      <c r="E917" t="n">
+        <v>615.3499755859375</v>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="n">
+        <v>10514344</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3</v>
+      </c>
+      <c r="J917" t="n">
+        <v>24</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>13</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
